--- a/Gestion/gira2113-guaa2102-berf2308-thia2612-guig2709-anil2301-barl2407-crej2104/L1 Gestion de risques.xlsx
+++ b/Gestion/gira2113-guaa2102-berf2308-thia2612-guig2709-anil2301-barl2407-crej2104/L1 Gestion de risques.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg_000\Desktop\Université\S5\Projet\ProjetS5\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederic\Google Drive\Génie Électrique\S5\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="6636" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="6630"/>
   </bookViews>
   <sheets>
-    <sheet name="Risques techniques" sheetId="1" r:id="rId1"/>
+    <sheet name="Risques fonctionnels" sheetId="1" r:id="rId1"/>
     <sheet name="Risques humains" sheetId="2" r:id="rId2"/>
     <sheet name="Risques de gestion" sheetId="3" r:id="rId3"/>
+    <sheet name="Progression des risques" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Risques de gestion'!$A$2:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Risques fonctionnels'!$A$2:$I$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Risques humains'!$A$2:$G$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Risques techniques'!$A$2:$G$12</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>Risque</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Résolution d'amplitude pas suffisante</t>
   </si>
   <si>
-    <t>Pas capable d'enregistrer le temps requis</t>
-  </si>
-  <si>
     <t>Discrimination du métronome impossible</t>
   </si>
   <si>
@@ -168,9 +166,6 @@
     <t>Bonne gestion de projet + bonne communication entre les membres de l'équipe</t>
   </si>
   <si>
-    <t xml:space="preserve">Se rapporter </t>
-  </si>
-  <si>
     <t>Dans notre cas : affecte nos outils de gestion (courbes en s, etc). Dans la vraie vie : problèmes pour la facturation au client + payes</t>
   </si>
   <si>
@@ -261,12 +256,6 @@
     <t>S'assurer que les sons choisis sont assez forts et utilisent bien la plage dynamique</t>
   </si>
   <si>
-    <t>Devrait pas arriver</t>
-  </si>
-  <si>
-    <t>Utiliser la mémoire externe au DSK</t>
-  </si>
-  <si>
     <t>La génération de partitions est instable</t>
   </si>
   <si>
@@ -289,6 +278,48 @@
   </si>
   <si>
     <t xml:space="preserve">Révisions du code soumis avant l'intégration. Asignation d'un maître de code qui s'assure de la rigueur. </t>
+  </si>
+  <si>
+    <t>No d'ordre CdC</t>
+  </si>
+  <si>
+    <t>FCONTR3</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>FPR1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>FPR3</t>
+  </si>
+  <si>
+    <t>FPR2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>FPR4</t>
+  </si>
+  <si>
+    <t>Délai de traitement qui dépasse le temps d'un échantillon</t>
+  </si>
+  <si>
+    <t>Le programme ne sera pas en temps réel, risques de plantage</t>
+  </si>
+  <si>
+    <t>Avoir une architecture aussi minimale que possible. Limiter les fonctionnalités secondaires implémentées.</t>
+  </si>
+  <si>
+    <t>Se rapporter au barême à chaque semaine</t>
   </si>
 </sst>
 </file>
@@ -332,22 +363,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,23 +467,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +502,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,305 +654,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.21875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="10.6640625" style="1"/>
-    <col min="6" max="6" width="44.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="31.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.06640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" style="1"/>
+    <col min="8" max="8" width="44.73046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.46484375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E12" si="0">B3*C3*D3</f>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G12" si="0">D3*E3*F3</f>
         <v>45</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
+      <c r="H12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G12">
-    <sortState ref="A3:G12">
-      <sortCondition descending="1" ref="E2:E12"/>
+  <autoFilter ref="A2:I12">
+    <sortState ref="A3:I12">
+      <sortCondition descending="1" ref="G2:G12"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E12">
+  <conditionalFormatting sqref="G3:G12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -983,55 +1020,55 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" style="1" customWidth="1"/>
     <col min="2" max="5" width="10.6640625" style="1"/>
-    <col min="6" max="6" width="44.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.46484375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1047,15 +1084,15 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1071,15 +1108,15 @@
         <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1095,87 +1132,87 @@
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -1191,10 +1228,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1226,291 +1263,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.21875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="10.6640625" style="2"/>
-    <col min="6" max="6" width="44.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="10.6640625" style="1"/>
+    <col min="6" max="6" width="44.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.46484375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="44.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E12" si="0">B3*C3*D3</f>
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E12" si="0">B3*C3*D3</f>
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1536,4 +1573,16 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>